--- a/Output/March/productivity_TL/productivity_TL_2022-03-04.xlsx
+++ b/Output/March/productivity_TL/productivity_TL_2022-03-04.xlsx
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T6">
         <v>30</v>
       </c>
       <c r="U6">
-        <v>0.1333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T7">
         <v>29</v>
       </c>
       <c r="U7">
-        <v>0.103448275862069</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1954,13 +1954,13 @@
         <v>10.15</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>74</v>
       </c>
       <c r="H3">
-        <v>0.0945945945945946</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2058,13 +2058,13 @@
         <v>10.21666666666667</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0945945945945946</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2396,7 +2396,7 @@
         <v>51</v>
       </c>
       <c r="D3">
-        <v>0.0945945945945946</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2464,7 +2464,7 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E7">
         <v>1</v>
